--- a/seaforth_sportfishing_2020.xlsx
+++ b/seaforth_sportfishing_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaikai Liu\Documents\PythonProjects\web-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2969375E-5C1A-4A20-955C-234C6796C18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F053CF-BD6A-4AB7-9CB6-4FD2D0819129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3055,6 +3055,1596 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-32F9-4960-A9CD-106B9B49B8BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>seaforth_sportfishing_2020!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Barracuda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>seaforth_sportfishing_2020!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43840</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43842</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43843</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43844</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43846</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43847</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43849</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43851</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>seaforth_sportfishing_2020!$L$2:$L$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.42528735632183906</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.41121495327102803</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.62893081761006286</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.14880952380952381</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.5217391304347824E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.18115942028985507</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.2967032967032967</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.16346153846153846</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.3149171270718231E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.30821917808219179</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.6681034482758621</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.45077720207253885</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.18421052631578946</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.1813471502590676E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5227272727272721E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.4634146341463415E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.19565217391304349</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.9518716577540107E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.24161073825503357</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.2446043165467626</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.8951048951048952E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.14393939393939395</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.12549019607843137</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.9364161849710976E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.29857819905213268</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.462686567164179E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.5627376425855515E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.2986111111111111</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.4935064935064929E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.2356020942408377E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.2522522522522521E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.2553191489361703E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.1841004184100415E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77F9-4214-B06F-888C2BDD0834}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>seaforth_sportfishing_2020!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>seaforth_sportfishing_2020!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43836</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43840</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43842</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43843</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43844</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43845</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43846</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43847</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43849</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43850</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43851</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43990</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>seaforth_sportfishing_2020!$M$2:$M$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52941176470588236</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63157894736842102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70270270270270274</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84210526315789469</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59090909090909094</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34090909090909088</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.37037037037037035</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.80645161290322576</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30612244897959184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.54545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.7560975609756101E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.88235294117647056</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.25925925925925924</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7567567567567571E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.7471264367816091E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.3644859813084112</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.94339622641509435</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74404761904761907</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.65217391304347827</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5362318840579712</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.82417582417582413</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.0865384615384617</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8062499999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2596685082872927</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.5821917808219178</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.51724137931034486</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.67875647668393779</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.65789473684210531</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.20725388601036268</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.14204545454545456</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.8878048780487805</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.10869565217391304</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1497326203208555</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.48993288590604028</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.57553956834532372</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3706293706293706</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.3106060606060606</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.24313725490196078</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.50867052023121384</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.14691943127962084</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.63694267515923564</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6095890410958904</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9057971014492754</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.3507462686567164</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1725663716814159</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.57034220532319391</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.1736111111111111</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.6233766233766234</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.68062827225130895</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.67567567567567566</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1711711711711712</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.57446808510638303</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.23012552301255229</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.792207792207792E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.22346368715083798</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.43103448275862066</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.45714285714285713</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.16129032258064516</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.45112781954887216</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.68571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.7803468208092483E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.7393364928909956E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77F9-4214-B06F-888C2BDD0834}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4175,7 +5765,7 @@
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
